--- a/Задание № 1.xlsx
+++ b/Задание № 1.xlsx
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,7 +899,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
